--- a/well_classification.xlsx
+++ b/well_classification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>steady_unsteady_status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>gor_trend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>water_cut_trend</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pi_trend</t>
         </is>
@@ -493,15 +498,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
@@ -530,15 +540,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>at/below</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
@@ -567,15 +582,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
@@ -604,15 +624,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>combo-flat-incr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
@@ -641,15 +666,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
@@ -678,15 +708,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
@@ -715,15 +750,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
@@ -752,15 +792,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
@@ -789,15 +834,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>at/below</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
@@ -826,15 +876,20 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>combo-flat-decr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
@@ -863,15 +918,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>combo-decr-flat</t>
         </is>
@@ -900,15 +960,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>at/below</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
@@ -937,15 +1002,20 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>incr</t>
         </is>
@@ -974,15 +1044,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Steady</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>at/below</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>combo-incr-flat</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>combo-decr-flat</t>
         </is>
@@ -1011,15 +1086,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>combo</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>incr</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
@@ -1048,15 +1128,20 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Steady</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>combo-decr-flat</t>
         </is>
@@ -1085,15 +1170,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>at/below</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>combo-incr-decr</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
@@ -1122,15 +1212,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>above</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>incr</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>combo-decr-incr</t>
         </is>
@@ -1159,15 +1254,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Steady</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>çombo</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>incr</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
@@ -1196,15 +1296,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Unsteady</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>combo</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>incr</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>decr</t>
         </is>
